--- a/传感器/连续物位测量/超声波物位传感器/迈安德物料定义-01属性表-外购设备-超声波物位传感器.xlsx
+++ b/传感器/连续物位测量/超声波物位传感器/迈安德物料定义-01属性表-外购设备-超声波物位传感器.xlsx
@@ -1028,7 +1028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ContactMaterial</t>
+          <t>OuputSignal</t>
         </is>
       </c>
       <c r="D22">
@@ -1959,8 +1959,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2线,4~20mA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ouputsignal1</t>
+        </is>
+      </c>
       <c r="H22" s="1">
         <f>CONCATENATE(A22," ",D22," ",E22," ","="," ","'",G22,"'",";")</f>
         <v/>
@@ -1997,12 +2005,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2线,4~20mA</t>
+          <t>10~30VDC,3线,4~20mA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ouputsignal1</t>
+          <t>ouputsignal2</t>
         </is>
       </c>
       <c r="H23" s="1">
@@ -2039,16 +2047,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>10~30VDC,3线,4~20mA</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>ouputsignal2</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" s="1">
         <f>CONCATENATE(A24," ",D24," ",E24," ","="," ","'",G24,"'",";")</f>
         <v/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>OuputSignal</t>
+          <t>SensorRange</t>
         </is>
       </c>
       <c r="D25">
@@ -2083,8 +2083,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8m液体/3.5m固体</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sensorrange1</t>
+        </is>
+      </c>
       <c r="H25" s="1">
         <f>CONCATENATE(A25," ",D25," ",E25," ","="," ","'",G25,"'",";")</f>
         <v/>
@@ -2121,12 +2129,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8m液体/3.5m固体</t>
+          <t>8m液体</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sensorrange1</t>
+          <t>sensorrange2</t>
         </is>
       </c>
       <c r="H26" s="1">
@@ -2165,12 +2173,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8m液体</t>
+          <t>1000mm</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sensorrange2</t>
+          <t>sensorrange3</t>
         </is>
       </c>
       <c r="H27" s="1">
@@ -2207,16 +2215,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1000mm</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>sensorrange3</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" s="1">
         <f>CONCATENATE(A28," ",D28," ",E28," ","="," ","'",G28,"'",";")</f>
         <v/>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SensorRange</t>
+          <t>Deadband</t>
         </is>
       </c>
       <c r="D29">
@@ -2251,8 +2251,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.35m</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>deadband1</t>
+        </is>
+      </c>
       <c r="H29" s="1">
         <f>CONCATENATE(A29," ",D29," ",E29," ","="," ","'",G29,"'",";")</f>
         <v/>
@@ -2289,12 +2297,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.35m</t>
+          <t>0.3m</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>deadband1</t>
+          <t>deadband2</t>
         </is>
       </c>
       <c r="H30" s="1">
@@ -2333,12 +2341,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.3m</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>deadband2</t>
+          <t>deadband3</t>
         </is>
       </c>
       <c r="H31" s="1">
@@ -2375,16 +2383,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>70mm</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>deadband3</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" s="1">
         <f>CONCATENATE(A32," ",D32," ",E32," ","="," ","'",G32,"'",";")</f>
         <v/>
@@ -2395,152 +2395,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>A301</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Deadband</t>
-        </is>
-      </c>
-      <c r="D33">
-        <f>"my"&amp;B33&amp;"_"&amp;C33</f>
-        <v/>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" s="1">
-        <f>CONCATENATE(A33," ",D33," ",E33," ","="," ","'",G33,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I33" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D33,,".",G33," ="," ",F33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>A301</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Certificate</t>
-        </is>
-      </c>
-      <c r="D34">
-        <f>"my"&amp;B34&amp;"_"&amp;C34</f>
-        <v/>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" s="1">
-        <f>CONCATENATE(A34," ",D34," ",E34," ","="," ","'",G34,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I34" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D34,,".",G34," ="," ",F34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>A301</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Resolution</t>
-        </is>
-      </c>
-      <c r="D35">
-        <f>"my"&amp;B35&amp;"_"&amp;C35</f>
-        <v/>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" s="1">
-        <f>CONCATENATE(A35," ",D35," ",E35," ","="," ","'",G35,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I35" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D35,,".",G35," ="," ",F35)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>A301</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="D36">
-        <f>"my"&amp;B36&amp;"_"&amp;C36</f>
-        <v/>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" s="1">
-        <f>CONCATENATE(A36," ",D36," ",E36," ","="," ","'",G36,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I36" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D36,,".",G36," ="," ",F36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="H37" s="1" t="n"/>
-      <c r="I37" s="2" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
